--- a/Report/Project Weekly Report _NguyenDucHoangNam.xlsx
+++ b/Report/Project Weekly Report _NguyenDucHoangNam.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FPT_UNIVERSITY\PRN222\E-Learning\Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\FPT- Chuyên Ngành 6\PRN222\E-learning\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6217F97A-BE2B-44D7-8DE9-A2E345B3E46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="21795" windowHeight="13875"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="W1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>PROJECT REPORT</t>
   </si>
@@ -124,11 +125,42 @@
   <si>
     <t>08/02/2025</t>
   </si>
+  <si>
+    <t>09/02/2025</t>
+  </si>
+  <si>
+    <t>Nguyen Duc Hoang Nam</t>
+  </si>
+  <si>
+    <t>Design and build database</t>
+  </si>
+  <si>
+    <t>Completed the initial design of the database schema, including tables, relationships, and constraints.
+Defined key entities and attributes required for the project.
+Set up the development environment for database creation (e.g., MySQL/PostgreSQL/SQL Server).
+Created scripts to implement the schema design.
+Tested basic CRUD operations to ensure tables and relationships are functioning as expected.</t>
+  </si>
+  <si>
+    <t>Recommend using Asana or Trello to track work progress, making it more transparent and easier to manage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Khanh Duc </t>
+  </si>
+  <si>
+    <t>Makes progress transparent and easier to track</t>
+  </si>
+  <si>
+    <t>Swagger integration for documentation automation</t>
+  </si>
+  <si>
+    <t>Support API documentation management and testing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -213,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -228,6 +260,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,19 +479,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="40.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="65.140625" customWidth="1"/>
     <col min="6" max="26" width="8.85546875" customWidth="1"/>
@@ -917,12 +954,20 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="B15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1043,10 +1088,18 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="B19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="12">
+        <v>45698</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1071,10 +1124,18 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="B20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="12">
+        <v>45698</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -28399,7 +28460,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D6">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D6" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Pending,In Progress,Completed"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Report/Project Weekly Report _NguyenDucHoangNam.xlsx
+++ b/Report/Project Weekly Report _NguyenDucHoangNam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\FPT- Chuyên Ngành 6\PRN222\E-learning\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6217F97A-BE2B-44D7-8DE9-A2E345B3E46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2815175B-A643-4671-8472-A69A025F0376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>PROJECT REPORT</t>
   </si>
@@ -155,6 +155,15 @@
   </si>
   <si>
     <t>Support API documentation management and testing</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>15/02/2025</t>
+  </si>
+  <si>
+    <t>Start coding</t>
   </si>
 </sst>
 </file>
@@ -483,8 +492,8 @@
   <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -991,11 +1000,19 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
